--- a/data/Bench_Viz.xlsx
+++ b/data/Bench_Viz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\francois\code\francoisp75\BenchViz\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8875FAB3-D079-483F-BB4F-8CD0BEA7B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A98739-4865-4384-B091-0EBD0ABE5672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B9D9D1F-9D5F-4A57-92BC-E7511312A836}"/>
   </bookViews>
@@ -147,7 +147,7 @@
     <numFmt numFmtId="165" formatCode="\+0.0%;\-0.0%;&quot;&quot;"/>
     <numFmt numFmtId="166" formatCode="\+0.0%;\-0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,17 +189,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -270,18 +258,13 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,7 +301,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -641,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1C1693-B53D-4801-A293-4EFC2EC48FAC}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +748,7 @@
         <v>1.1909030560045775E-2</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -849,10 +832,10 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1023,10 +1006,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1188,19 +1171,19 @@
         <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>3.147292527347112E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F19" s="5">
-        <v>2.7961075287150639E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G19" s="5">
-        <v>8.079646222309167E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H19" s="5">
-        <v>2.6540403962299619E-2</v>
-      </c>
-      <c r="I19" s="11">
-        <v>2.7E-2</v>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1513,7 +1496,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1537,12 +1520,12 @@
       <c r="H31" s="4">
         <v>0.37288020275212191</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>0.37353108375261967</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1566,12 +1549,12 @@
       <c r="H32" s="4">
         <v>0.29192480239265112</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>0.28922930391300899</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1595,12 +1578,12 @@
       <c r="H33" s="4">
         <v>0.26807493529661652</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>0.26545185208217875</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1624,12 +1607,12 @@
       <c r="H34" s="4">
         <v>0.30214376344934563</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>0.30472537506521952</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1653,12 +1636,12 @@
       <c r="H35" s="4">
         <v>0.3713303878252332</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>0.374015942961826</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1682,12 +1665,12 @@
       <c r="H36" s="4">
         <v>0.2624056292604266</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>0.26244110718492342</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1711,12 +1694,12 @@
       <c r="H37" s="4">
         <v>0.44685397653784092</v>
       </c>
-      <c r="I37" s="8">
-        <v>0.44685397653784092</v>
+      <c r="I37" s="9">
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1740,12 +1723,12 @@
       <c r="H38" s="4">
         <v>0.38536729857819901</v>
       </c>
-      <c r="I38" s="8">
-        <v>0.38536729857819901</v>
+      <c r="I38" s="9">
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1769,12 +1752,12 @@
       <c r="H39" s="4">
         <v>0.28857427171181899</v>
       </c>
-      <c r="I39" s="8">
-        <v>0.28857427171181899</v>
+      <c r="I39" s="9">
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1798,8 +1781,8 @@
       <c r="H40" s="4">
         <v>0.35796276211135197</v>
       </c>
-      <c r="I40" s="8">
-        <v>0.35796276211135197</v>
+      <c r="I40" s="9">
+        <v>0.36</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1827,7 +1810,7 @@
       <c r="H41" s="4">
         <v>0.13304757530914596</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <v>0.13431303506732623</v>
       </c>
     </row>
@@ -1856,7 +1839,7 @@
       <c r="H42" s="4">
         <v>0.18324076052125615</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>0.18154880016932562</v>
       </c>
     </row>
@@ -1885,7 +1868,7 @@
       <c r="H43" s="4">
         <v>0.12943709932541719</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>0.12841535247541483</v>
       </c>
     </row>
@@ -1914,7 +1897,7 @@
       <c r="H44" s="4">
         <v>0.15717681199908337</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>0.15792992565579875</v>
       </c>
     </row>
@@ -1943,7 +1926,7 @@
       <c r="H45" s="4">
         <v>0.23843888070692196</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>0.24048125959300887</v>
       </c>
     </row>
@@ -1972,7 +1955,7 @@
       <c r="H46" s="4">
         <v>0.1394993894993895</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <v>0.1419316843345112</v>
       </c>
     </row>
@@ -2001,8 +1984,8 @@
       <c r="H47" s="4">
         <v>0.21968985389283208</v>
       </c>
-      <c r="I47" s="8">
-        <v>0.21968985389283208</v>
+      <c r="I47" s="9">
+        <v>0.21</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2030,11 +2013,11 @@
       <c r="H48" s="4">
         <v>0.20063191153238547</v>
       </c>
-      <c r="I48" s="8">
-        <v>0.20063191153238547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="9">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2059,11 +2042,11 @@
       <c r="H49" s="4">
         <v>0.39157151031171483</v>
       </c>
-      <c r="I49" s="8">
-        <v>0.39157151031171483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="9">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2088,11 +2071,11 @@
       <c r="H50" s="4">
         <v>0.13647866955892984</v>
       </c>
-      <c r="I50" s="8">
-        <v>0.13647866955892984</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="9">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -2117,11 +2100,11 @@
       <c r="H51" s="4">
         <v>0.23983262744297595</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <v>0.23921804868529345</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -2146,12 +2129,12 @@
       <c r="H52" s="4">
         <v>0.10868404187139501</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="9">
         <f>[1]DATABASE!$BG$172</f>
         <v>0.10768050374368336</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -2176,11 +2159,11 @@
       <c r="H53" s="4">
         <v>0.13863783597119933</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <v>0.13703649960676398</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -2205,11 +2188,11 @@
       <c r="H54" s="4">
         <v>0.14496695145026225</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="9">
         <v>0.14679544940942077</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -2234,11 +2217,11 @@
       <c r="H55" s="4">
         <v>0.13289150711831124</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="9">
         <v>0.13289150711831124</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -2263,11 +2246,11 @@
       <c r="H56" s="4">
         <v>0.10927960927960928</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="9">
         <v>0.12050942285041225</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -2280,19 +2263,20 @@
       <c r="D57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="8">
-        <v>0.21641841569470274</v>
+      <c r="E57" s="9">
+        <v>0.214</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4">
         <v>0.22716412264500885</v>
       </c>
-      <c r="I57" s="8">
-        <v>0.22716412264500885</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="9">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -2305,19 +2289,20 @@
       <c r="D58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="8">
-        <v>0.178707779886148</v>
+      <c r="E58" s="9">
+        <v>0.185</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4">
         <v>0.18473538704581355</v>
       </c>
-      <c r="I58" s="8">
-        <v>0.18473538704581355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="9">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -2330,19 +2315,20 @@
       <c r="D59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="8">
-        <v>-0.1160670058094071</v>
+      <c r="E59" s="9">
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4">
         <v>-0.10299723859989585</v>
       </c>
-      <c r="I59" s="8">
-        <v>-0.10299723859989585</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="9">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -2355,16 +2341,16 @@
       <c r="D60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="8">
-        <v>0.21961198970209636</v>
+      <c r="E60" s="9">
+        <v>0.214</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4">
         <v>0.22148409255242213</v>
       </c>
-      <c r="I60" s="8">
-        <v>0.22148409255242213</v>
+      <c r="I60" s="9">
+        <v>0.22600000000000001</v>
       </c>
     </row>
   </sheetData>
